--- a/inst/data-raw/distributions.xlsx
+++ b/inst/data-raw/distributions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t xml:space="preserve">r</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t xml:space="preserve">extraDistr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dunif2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exams2moodle</t>
   </si>
 </sst>
 </file>
@@ -210,13 +219,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -228,7 +237,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -242,7 +251,7 @@
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -396,8 +405,22 @@
       <c r="C13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/inst/data-raw/distributions.xlsx
+++ b/inst/data-raw/distributions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t xml:space="preserve">r</t>
   </si>
@@ -34,6 +34,12 @@
     <t xml:space="preserve">package</t>
   </si>
   <si>
+    <t xml:space="preserve">expectation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variance</t>
+  </si>
+  <si>
     <t xml:space="preserve">binom</t>
   </si>
   <si>
@@ -43,66 +49,126 @@
     <t xml:space="preserve">stats</t>
   </si>
   <si>
+    <t xml:space="preserve">size*prob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size*prob*(1-prob)</t>
+  </si>
+  <si>
     <t xml:space="preserve">chisq</t>
   </si>
   <si>
     <t xml:space="preserve">\chi^2</t>
   </si>
   <si>
+    <t xml:space="preserve">df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2*df</t>
+  </si>
+  <si>
     <t xml:space="preserve">exp</t>
   </si>
   <si>
     <t xml:space="preserve">Exp</t>
   </si>
   <si>
+    <t xml:space="preserve">1/rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/rate^2</t>
+  </si>
+  <si>
     <t xml:space="preserve">f</t>
   </si>
   <si>
     <t xml:space="preserve">F_</t>
   </si>
   <si>
+    <t xml:space="preserve">df2/(df-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2*df2^2*(df1+df2-2))/(df1*(df2-2)^2*(df2-4))</t>
+  </si>
+  <si>
     <t xml:space="preserve">geom</t>
   </si>
   <si>
     <t xml:space="preserve">G</t>
   </si>
   <si>
+    <t xml:space="preserve">1/prob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1-prob)/prob^2</t>
+  </si>
+  <si>
     <t xml:space="preserve">hyper</t>
   </si>
   <si>
     <t xml:space="preserve">Hyp</t>
   </si>
   <si>
+    <t xml:space="preserve">k*m/(m+n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k*m/(m+n)*(1-m/(m+n))*(m+n-k)/(m+n-1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">lnorm</t>
   </si>
   <si>
     <t xml:space="preserve">lN</t>
   </si>
   <si>
+    <t xml:space="preserve">log(mean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2*log(sd)</t>
+  </si>
+  <si>
     <t xml:space="preserve">norm</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sd^2</t>
+  </si>
+  <si>
     <t xml:space="preserve">pois</t>
   </si>
   <si>
     <t xml:space="preserve">Po</t>
   </si>
   <si>
+    <t xml:space="preserve">lambda</t>
+  </si>
+  <si>
     <t xml:space="preserve">t</t>
   </si>
   <si>
     <t xml:space="preserve">t_</t>
   </si>
   <si>
+    <t xml:space="preserve">df/(df-2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">unif</t>
   </si>
   <si>
     <t xml:space="preserve">U</t>
   </si>
   <si>
+    <t xml:space="preserve">(min+max)/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(max-min)^1/12</t>
+  </si>
+  <si>
     <t xml:space="preserve">dunif</t>
   </si>
   <si>
@@ -110,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">extraDistr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">dunif2</t>
@@ -219,13 +288,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -240,193 +309,277 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
